--- a/Masters Project and Analysis/analytical_data/Complete_results_F1&AVG.xlsx
+++ b/Masters Project and Analysis/analytical_data/Complete_results_F1&AVG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herma\Desktop\Masters Project\analytical_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herma\Desktop\WORKSPACE\KeyBERT-Estonia-setup\Masters Project and Analysis\analytical_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C646DF7-AF1A-4D2F-B179-03685B2C9A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940F7189-9FC9-4082-A99D-185BAA52E872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6420" yWindow="2430" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6420" yWindow="2430" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA_M_AVG_&amp;_F1_SCORE" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,21 @@
     <definedName name="ExternalData_7" localSheetId="0" hidden="1">'RAWDATA_M_AVG_&amp;_F1_SCORE'!$Y$159:$AA$258</definedName>
     <definedName name="ExternalData_8" localSheetId="0" hidden="1">'RAWDATA_M_AVG_&amp;_F1_SCORE'!$AC$159:$AE$258</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -66,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3973" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3974" uniqueCount="446">
   <si>
     <t>Diversity</t>
   </si>
@@ -1401,6 +1412,9 @@
   </si>
   <si>
     <t>BEST MEAN AVERAGE FOUND WORDS , CORRESPONDING MODEL AND  DIVERSITY</t>
+  </si>
+  <si>
+    <t>MiniLM_multi=MPNet</t>
   </si>
 </sst>
 </file>
@@ -1410,7 +1424,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1489,6 +1503,14 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2767,7 +2789,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3200,6 +3222,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3724,14 +3747,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY258"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A59" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I94" sqref="I94"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O121" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -3781,20 +3804,24 @@
     <col min="51" max="51" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51">
+    <row r="1" spans="1:51" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>393</v>
       </c>
       <c r="D1" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="2" spans="1:51" ht="15.75" thickBot="1">
+      <c r="F1" s="178" t="s">
+        <v>445</v>
+      </c>
+      <c r="G1" s="178"/>
+    </row>
+    <row r="2" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="3" spans="1:51" ht="15.75" thickBot="1">
+    <row r="3" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="8"/>
@@ -3852,7 +3879,7 @@
       <c r="AX3" s="7"/>
       <c r="AY3" s="8"/>
     </row>
-    <row r="4" spans="1:51" ht="15.75" thickBot="1">
+    <row r="4" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>319</v>
       </c>
@@ -3934,7 +3961,7 @@
       <c r="AX4" s="7"/>
       <c r="AY4" s="8"/>
     </row>
-    <row r="5" spans="1:51" ht="15.75" thickBot="1">
+    <row r="5" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>0</v>
       </c>
@@ -4080,7 +4107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:51">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>9</v>
       </c>
@@ -4226,7 +4253,7 @@
         <v>0.69609328092278699</v>
       </c>
     </row>
-    <row r="7" spans="1:51">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -4372,7 +4399,7 @@
         <v>0.68764569504378503</v>
       </c>
     </row>
-    <row r="8" spans="1:51">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>5</v>
       </c>
@@ -4518,7 +4545,7 @@
         <v>0.68465940097691003</v>
       </c>
     </row>
-    <row r="9" spans="1:51">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>3</v>
       </c>
@@ -4664,7 +4691,7 @@
         <v>0.67640072470051804</v>
       </c>
     </row>
-    <row r="10" spans="1:51">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
@@ -4810,7 +4837,7 @@
         <v>0.67499754784863997</v>
       </c>
     </row>
-    <row r="11" spans="1:51">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>10</v>
       </c>
@@ -4956,7 +4983,7 @@
         <v>0.67404070442705599</v>
       </c>
     </row>
-    <row r="12" spans="1:51">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>16</v>
       </c>
@@ -5102,7 +5129,7 @@
         <v>0.67058080822399702</v>
       </c>
     </row>
-    <row r="13" spans="1:51">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>5</v>
       </c>
@@ -5248,7 +5275,7 @@
         <v>0.66721456792707201</v>
       </c>
     </row>
-    <row r="14" spans="1:51">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>9</v>
       </c>
@@ -5394,7 +5421,7 @@
         <v>0.66684235187438601</v>
       </c>
     </row>
-    <row r="15" spans="1:51" ht="15.75" thickBot="1">
+    <row r="15" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>3</v>
       </c>
@@ -5540,7 +5567,7 @@
         <v>0.66460169145153603</v>
       </c>
     </row>
-    <row r="17" spans="1:51" ht="15.75" thickBot="1">
+    <row r="17" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>323</v>
       </c>
@@ -5548,7 +5575,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:51" ht="15.75" thickBot="1">
+    <row r="18" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>319</v>
       </c>
@@ -5630,7 +5657,7 @@
       <c r="AX18" s="7"/>
       <c r="AY18" s="8"/>
     </row>
-    <row r="19" spans="1:51">
+    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>0</v>
       </c>
@@ -5776,7 +5803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:51">
+    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
         <v>9</v>
       </c>
@@ -5922,7 +5949,7 @@
         <v>0.64628140003485901</v>
       </c>
     </row>
-    <row r="21" spans="1:51">
+    <row r="21" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
         <v>7</v>
       </c>
@@ -6068,7 +6095,7 @@
         <v>0.64425814120580704</v>
       </c>
     </row>
-    <row r="22" spans="1:51">
+    <row r="22" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>5</v>
       </c>
@@ -6214,7 +6241,7 @@
         <v>0.642233352674346</v>
       </c>
     </row>
-    <row r="23" spans="1:51">
+    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
         <v>9</v>
       </c>
@@ -6360,7 +6387,7 @@
         <v>0.64217278876835604</v>
       </c>
     </row>
-    <row r="24" spans="1:51">
+    <row r="24" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A24" s="22" t="s">
         <v>7</v>
       </c>
@@ -6506,7 +6533,7 @@
         <v>0.63212437032812596</v>
       </c>
     </row>
-    <row r="25" spans="1:51">
+    <row r="25" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
         <v>9</v>
       </c>
@@ -6652,7 +6679,7 @@
         <v>0.62933966037713096</v>
       </c>
     </row>
-    <row r="26" spans="1:51">
+    <row r="26" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>5</v>
       </c>
@@ -6798,7 +6825,7 @@
         <v>0.62896635016953795</v>
       </c>
     </row>
-    <row r="27" spans="1:51">
+    <row r="27" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>7</v>
       </c>
@@ -6944,7 +6971,7 @@
         <v>0.62663323656824499</v>
       </c>
     </row>
-    <row r="28" spans="1:51">
+    <row r="28" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
         <v>3</v>
       </c>
@@ -7090,7 +7117,7 @@
         <v>0.62536216012704204</v>
       </c>
     </row>
-    <row r="29" spans="1:51" ht="15.75" thickBot="1">
+    <row r="29" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>5</v>
       </c>
@@ -7236,8 +7263,8 @@
         <v>0.62458174807668698</v>
       </c>
     </row>
-    <row r="30" spans="1:51" ht="15.75" thickBot="1"/>
-    <row r="31" spans="1:51" ht="15.75" thickBot="1">
+    <row r="30" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>324</v>
       </c>
@@ -7253,7 +7280,7 @@
       <c r="K31" s="12"/>
       <c r="L31" s="13"/>
     </row>
-    <row r="32" spans="1:51" ht="15.75" thickBot="1">
+    <row r="32" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>319</v>
       </c>
@@ -7335,7 +7362,7 @@
       <c r="AX32" s="7"/>
       <c r="AY32" s="8"/>
     </row>
-    <row r="33" spans="1:51">
+    <row r="33" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A33" s="22" t="s">
         <v>0</v>
       </c>
@@ -7481,7 +7508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:51">
+    <row r="34" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A34" s="22" t="s">
         <v>9</v>
       </c>
@@ -7627,7 +7654,7 @@
         <v>0.37726382529229102</v>
       </c>
     </row>
-    <row r="35" spans="1:51">
+    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>7</v>
       </c>
@@ -7773,7 +7800,7 @@
         <v>0.37699007460165801</v>
       </c>
     </row>
-    <row r="36" spans="1:51">
+    <row r="36" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>5</v>
       </c>
@@ -7919,7 +7946,7 @@
         <v>0.37381446978024202</v>
       </c>
     </row>
-    <row r="37" spans="1:51">
+    <row r="37" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>3</v>
       </c>
@@ -8065,7 +8092,7 @@
         <v>0.36700655245740299</v>
       </c>
     </row>
-    <row r="38" spans="1:51">
+    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
         <v>6</v>
       </c>
@@ -8211,7 +8238,7 @@
         <v>0.36443932811063801</v>
       </c>
     </row>
-    <row r="39" spans="1:51">
+    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
         <v>10</v>
       </c>
@@ -8357,7 +8384,7 @@
         <v>0.35708996012810001</v>
       </c>
     </row>
-    <row r="40" spans="1:51">
+    <row r="40" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>13</v>
       </c>
@@ -8503,7 +8530,7 @@
         <v>0.33850315114118001</v>
       </c>
     </row>
-    <row r="41" spans="1:51">
+    <row r="41" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
         <v>11</v>
       </c>
@@ -8649,7 +8676,7 @@
         <v>0.32950885862758</v>
       </c>
     </row>
-    <row r="42" spans="1:51">
+    <row r="42" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A42" s="22" t="s">
         <v>14</v>
       </c>
@@ -8795,7 +8822,7 @@
         <v>0.32898880062687202</v>
       </c>
     </row>
-    <row r="43" spans="1:51" ht="15.75" thickBot="1">
+    <row r="43" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>5</v>
       </c>
@@ -8941,8 +8968,8 @@
         <v>0.32806116526296197</v>
       </c>
     </row>
-    <row r="44" spans="1:51" ht="15.75" thickBot="1"/>
-    <row r="45" spans="1:51" ht="15.75" thickBot="1">
+    <row r="44" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="45" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>325</v>
       </c>
@@ -8958,7 +8985,7 @@
       <c r="K45" s="12"/>
       <c r="L45" s="13"/>
     </row>
-    <row r="46" spans="1:51" ht="15.75" thickBot="1">
+    <row r="46" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>319</v>
       </c>
@@ -9040,7 +9067,7 @@
       <c r="AX46" s="7"/>
       <c r="AY46" s="8"/>
     </row>
-    <row r="47" spans="1:51">
+    <row r="47" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A47" s="22" t="s">
         <v>0</v>
       </c>
@@ -9186,7 +9213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:51">
+    <row r="48" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
         <v>7</v>
       </c>
@@ -9332,7 +9359,7 @@
         <v>0.37764893678064398</v>
       </c>
     </row>
-    <row r="49" spans="1:51">
+    <row r="49" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
         <v>9</v>
       </c>
@@ -9478,7 +9505,7 @@
         <v>0.37544247979434597</v>
       </c>
     </row>
-    <row r="50" spans="1:51">
+    <row r="50" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
         <v>5</v>
       </c>
@@ -9624,7 +9651,7 @@
         <v>0.37132064954532201</v>
       </c>
     </row>
-    <row r="51" spans="1:51">
+    <row r="51" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
         <v>3</v>
       </c>
@@ -9770,7 +9797,7 @@
         <v>0.36605528374306301</v>
       </c>
     </row>
-    <row r="52" spans="1:51">
+    <row r="52" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A52" s="22" t="s">
         <v>5</v>
       </c>
@@ -9916,7 +9943,7 @@
         <v>0.356958784375494</v>
       </c>
     </row>
-    <row r="53" spans="1:51">
+    <row r="53" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A53" s="22" t="s">
         <v>9</v>
       </c>
@@ -10062,7 +10089,7 @@
         <v>0.35123379561296603</v>
       </c>
     </row>
-    <row r="54" spans="1:51">
+    <row r="54" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A54" s="22" t="s">
         <v>7</v>
       </c>
@@ -10208,7 +10235,7 @@
         <v>0.34992021812291801</v>
       </c>
     </row>
-    <row r="55" spans="1:51">
+    <row r="55" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A55" s="22" t="s">
         <v>3</v>
       </c>
@@ -10354,7 +10381,7 @@
         <v>0.34295701345851798</v>
       </c>
     </row>
-    <row r="56" spans="1:51">
+    <row r="56" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A56" s="22" t="s">
         <v>6</v>
       </c>
@@ -10500,7 +10527,7 @@
         <v>0.34196114899860097</v>
       </c>
     </row>
-    <row r="57" spans="1:51" ht="15.75" thickBot="1">
+    <row r="57" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>6</v>
       </c>
@@ -10646,12 +10673,12 @@
         <v>0.34180682801094697</v>
       </c>
     </row>
-    <row r="59" spans="1:51" ht="15.75" thickBot="1">
+    <row r="59" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="60" spans="1:51" ht="15.75" thickBot="1">
+    <row r="60" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>319</v>
       </c>
@@ -10733,7 +10760,7 @@
       <c r="AX60" s="7"/>
       <c r="AY60" s="8"/>
     </row>
-    <row r="61" spans="1:51">
+    <row r="61" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
         <v>0</v>
       </c>
@@ -10879,7 +10906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:51">
+    <row r="62" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A62" s="22" t="s">
         <v>13</v>
       </c>
@@ -11025,7 +11052,7 @@
         <v>0.17006697371828899</v>
       </c>
     </row>
-    <row r="63" spans="1:51">
+    <row r="63" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
         <v>11</v>
       </c>
@@ -11171,7 +11198,7 @@
         <v>0.16806171848161</v>
       </c>
     </row>
-    <row r="64" spans="1:51">
+    <row r="64" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A64" s="22" t="s">
         <v>10</v>
       </c>
@@ -11317,7 +11344,7 @@
         <v>0.16545489379360201</v>
       </c>
     </row>
-    <row r="65" spans="1:51">
+    <row r="65" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A65" s="22" t="s">
         <v>6</v>
       </c>
@@ -11463,7 +11490,7 @@
         <v>0.16411665350218799</v>
       </c>
     </row>
-    <row r="66" spans="1:51">
+    <row r="66" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
         <v>16</v>
       </c>
@@ -11609,7 +11636,7 @@
         <v>0.15760296715254499</v>
       </c>
     </row>
-    <row r="67" spans="1:51">
+    <row r="67" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A67" s="22" t="s">
         <v>19</v>
       </c>
@@ -11755,7 +11782,7 @@
         <v>0.153455487859297</v>
       </c>
     </row>
-    <row r="68" spans="1:51">
+    <row r="68" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A68" s="22" t="s">
         <v>14</v>
       </c>
@@ -11901,7 +11928,7 @@
         <v>0.15011873905471201</v>
       </c>
     </row>
-    <row r="69" spans="1:51">
+    <row r="69" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A69" s="22" t="s">
         <v>9</v>
       </c>
@@ -12047,7 +12074,7 @@
         <v>0.14925254668632701</v>
       </c>
     </row>
-    <row r="70" spans="1:51">
+    <row r="70" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
         <v>5</v>
       </c>
@@ -12193,7 +12220,7 @@
         <v>0.14889901133279099</v>
       </c>
     </row>
-    <row r="71" spans="1:51" ht="15.75" thickBot="1">
+    <row r="71" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="24" t="s">
         <v>7</v>
       </c>
@@ -12339,12 +12366,12 @@
         <v>0.14889901133279099</v>
       </c>
     </row>
-    <row r="73" spans="1:51" ht="15.75" thickBot="1">
+    <row r="73" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="74" spans="1:51" ht="15.75" thickBot="1">
+    <row r="74" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>319</v>
       </c>
@@ -12426,7 +12453,7 @@
       <c r="AX74" s="7"/>
       <c r="AY74" s="8"/>
     </row>
-    <row r="75" spans="1:51">
+    <row r="75" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>0</v>
       </c>
@@ -12572,7 +12599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:51">
+    <row r="76" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A76" s="22" t="s">
         <v>9</v>
       </c>
@@ -12718,7 +12745,7 @@
         <v>0.17017612676281399</v>
       </c>
     </row>
-    <row r="77" spans="1:51">
+    <row r="77" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A77" s="22" t="s">
         <v>7</v>
       </c>
@@ -12864,7 +12891,7 @@
         <v>0.167249370200694</v>
       </c>
     </row>
-    <row r="78" spans="1:51">
+    <row r="78" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A78" s="22" t="s">
         <v>5</v>
       </c>
@@ -13010,7 +13037,7 @@
         <v>0.16527586999598501</v>
       </c>
     </row>
-    <row r="79" spans="1:51">
+    <row r="79" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A79" s="22" t="s">
         <v>3</v>
       </c>
@@ -13156,7 +13183,7 @@
         <v>0.16474775164158501</v>
       </c>
     </row>
-    <row r="80" spans="1:51">
+    <row r="80" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A80" s="22" t="s">
         <v>6</v>
       </c>
@@ -13302,7 +13329,7 @@
         <v>0.16191493609875901</v>
       </c>
     </row>
-    <row r="81" spans="1:51">
+    <row r="81" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>9</v>
       </c>
@@ -13448,7 +13475,7 @@
         <v>0.158148571416416</v>
       </c>
     </row>
-    <row r="82" spans="1:51">
+    <row r="82" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>3</v>
       </c>
@@ -13594,7 +13621,7 @@
         <v>0.15561132438953201</v>
       </c>
     </row>
-    <row r="83" spans="1:51">
+    <row r="83" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>5</v>
       </c>
@@ -13740,7 +13767,7 @@
         <v>0.155144620311716</v>
       </c>
     </row>
-    <row r="84" spans="1:51">
+    <row r="84" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>7</v>
       </c>
@@ -13886,7 +13913,7 @@
         <v>0.155028879570976</v>
       </c>
     </row>
-    <row r="85" spans="1:51" ht="15.75" thickBot="1">
+    <row r="85" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>10</v>
       </c>
@@ -14032,12 +14059,12 @@
         <v>0.155028879570976</v>
       </c>
     </row>
-    <row r="87" spans="1:51" ht="15.75" thickBot="1">
+    <row r="87" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:51">
+    <row r="88" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>332</v>
       </c>
@@ -14080,7 +14107,7 @@
       <c r="AK88" s="12"/>
       <c r="AL88" s="13"/>
     </row>
-    <row r="89" spans="1:51">
+    <row r="89" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="s">
         <v>319</v>
       </c>
@@ -14124,7 +14151,7 @@
       </c>
       <c r="AL89" s="10"/>
     </row>
-    <row r="90" spans="1:51">
+    <row r="90" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A90" s="45" t="s">
         <v>354</v>
       </c>
@@ -14209,7 +14236,7 @@
         <v>0.1038</v>
       </c>
     </row>
-    <row r="91" spans="1:51">
+    <row r="91" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A91" s="45" t="s">
         <v>367</v>
       </c>
@@ -14294,7 +14321,7 @@
         <v>0.14410000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:51">
+    <row r="92" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A92" s="47"/>
       <c r="B92" s="36"/>
       <c r="E92" s="36"/>
@@ -14312,7 +14339,7 @@
       <c r="AL92" s="10"/>
       <c r="AM92" s="4"/>
     </row>
-    <row r="93" spans="1:51">
+    <row r="93" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>333</v>
       </c>
@@ -14335,7 +14362,7 @@
       <c r="AI93" s="36"/>
       <c r="AL93" s="48"/>
     </row>
-    <row r="94" spans="1:51">
+    <row r="94" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="s">
         <v>319</v>
       </c>
@@ -14388,7 +14415,7 @@
       </c>
       <c r="AL94" s="48"/>
     </row>
-    <row r="95" spans="1:51">
+    <row r="95" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A95" s="45" t="s">
         <v>355</v>
       </c>
@@ -14473,7 +14500,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="96" spans="1:51" ht="15.75" thickBot="1">
+    <row r="96" spans="1:51" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="49" t="s">
         <v>368</v>
       </c>
@@ -14558,8 +14585,8 @@
         <v>0.1547</v>
       </c>
     </row>
-    <row r="100" spans="1:29" ht="15.75" thickBot="1"/>
-    <row r="101" spans="1:29" ht="15.75" thickBot="1">
+    <row r="100" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="56" t="s">
         <v>407</v>
       </c>
@@ -14576,7 +14603,7 @@
       <c r="L101" s="12"/>
       <c r="M101" s="13"/>
     </row>
-    <row r="102" spans="1:29">
+    <row r="102" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A102" s="9"/>
       <c r="B102" s="11" t="s">
         <v>308</v>
@@ -14599,7 +14626,7 @@
       <c r="L102" s="12"/>
       <c r="M102" s="13"/>
     </row>
-    <row r="103" spans="1:29">
+    <row r="103" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A103" s="9"/>
       <c r="B103" s="9" t="s">
         <v>17</v>
@@ -14618,7 +14645,7 @@
       </c>
       <c r="M103" s="10"/>
     </row>
-    <row r="104" spans="1:29">
+    <row r="104" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A104" s="57" t="s">
         <v>312</v>
       </c>
@@ -14652,7 +14679,7 @@
       </c>
       <c r="T104" s="1"/>
     </row>
-    <row r="105" spans="1:29">
+    <row r="105" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A105" s="57" t="s">
         <v>313</v>
       </c>
@@ -14686,7 +14713,7 @@
       </c>
       <c r="T105" s="1"/>
     </row>
-    <row r="106" spans="1:29">
+    <row r="106" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A106" s="57" t="s">
         <v>309</v>
       </c>
@@ -14720,7 +14747,7 @@
       </c>
       <c r="T106" s="1"/>
     </row>
-    <row r="107" spans="1:29" ht="15.75" thickBot="1">
+    <row r="107" spans="1:29" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="58" t="s">
         <v>311</v>
       </c>
@@ -14754,12 +14781,12 @@
       </c>
       <c r="T107" s="1"/>
     </row>
-    <row r="110" spans="1:29">
+    <row r="110" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="111" spans="1:29">
+    <row r="111" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>87</v>
       </c>
@@ -14776,7 +14803,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="112" spans="1:29">
+    <row r="112" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>17</v>
       </c>
@@ -14802,7 +14829,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="113" spans="1:29">
+    <row r="113" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>28</v>
       </c>
@@ -14828,7 +14855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:29">
+    <row r="114" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>30</v>
       </c>
@@ -14854,7 +14881,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="115" spans="1:29">
+    <row r="115" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>31</v>
       </c>
@@ -14880,7 +14907,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="116" spans="1:29">
+    <row r="116" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>32</v>
       </c>
@@ -14906,7 +14933,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="117" spans="1:29">
+    <row r="117" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>33</v>
       </c>
@@ -14932,7 +14959,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="118" spans="1:29">
+    <row r="118" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>34</v>
       </c>
@@ -14958,7 +14985,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="119" spans="1:29">
+    <row r="119" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>35</v>
       </c>
@@ -14984,7 +15011,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="120" spans="1:29">
+    <row r="120" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>36</v>
       </c>
@@ -15010,7 +15037,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="121" spans="1:29">
+    <row r="121" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>37</v>
       </c>
@@ -15036,7 +15063,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="122" spans="1:29">
+    <row r="122" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>38</v>
       </c>
@@ -15062,7 +15089,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="123" spans="1:29">
+    <row r="123" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="E123" s="2"/>
       <c r="I123" s="2"/>
@@ -15072,7 +15099,7 @@
       <c r="Y123" s="2"/>
       <c r="AC123" s="2"/>
     </row>
-    <row r="124" spans="1:29">
+    <row r="124" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>29</v>
       </c>
@@ -15098,7 +15125,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="125" spans="1:29">
+    <row r="125" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>39</v>
       </c>
@@ -15124,7 +15151,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="126" spans="1:29">
+    <row r="126" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>40</v>
       </c>
@@ -15150,7 +15177,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="127" spans="1:29">
+    <row r="127" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>41</v>
       </c>
@@ -15176,7 +15203,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="128" spans="1:29">
+    <row r="128" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>42</v>
       </c>
@@ -15202,7 +15229,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="129" spans="1:41">
+    <row r="129" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>43</v>
       </c>
@@ -15228,7 +15255,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="130" spans="1:41">
+    <row r="130" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>44</v>
       </c>
@@ -15254,7 +15281,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:41">
+    <row r="131" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>45</v>
       </c>
@@ -15280,7 +15307,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="132" spans="1:41">
+    <row r="132" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>46</v>
       </c>
@@ -15306,7 +15333,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="133" spans="1:41">
+    <row r="133" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>47</v>
       </c>
@@ -15332,7 +15359,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="134" spans="1:41">
+    <row r="134" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>48</v>
       </c>
@@ -15358,7 +15385,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="135" spans="1:41">
+    <row r="135" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>49</v>
       </c>
@@ -15384,7 +15411,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="136" spans="1:41">
+    <row r="136" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="E136" s="2"/>
       <c r="I136" s="2"/>
@@ -15394,7 +15421,7 @@
       <c r="Y136" s="2"/>
       <c r="AC136" s="2"/>
     </row>
-    <row r="137" spans="1:41">
+    <row r="137" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>50</v>
       </c>
@@ -15420,7 +15447,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="138" spans="1:41">
+    <row r="138" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>51</v>
       </c>
@@ -15446,7 +15473,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="139" spans="1:41">
+    <row r="139" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="E139" s="2"/>
       <c r="I139" s="2"/>
@@ -15456,7 +15483,7 @@
       <c r="Y139" s="2"/>
       <c r="AC139" s="2"/>
     </row>
-    <row r="140" spans="1:41">
+    <row r="140" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>63</v>
       </c>
@@ -15483,7 +15510,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="141" spans="1:41">
+    <row r="141" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>52</v>
       </c>
@@ -15513,7 +15540,7 @@
       <c r="AN141" s="3"/>
       <c r="AO141" s="3"/>
     </row>
-    <row r="142" spans="1:41">
+    <row r="142" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>53</v>
       </c>
@@ -15539,7 +15566,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="143" spans="1:41">
+    <row r="143" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>54</v>
       </c>
@@ -15567,7 +15594,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="144" spans="1:41">
+    <row r="144" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>55</v>
       </c>
@@ -15593,7 +15620,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="145" spans="1:46">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>56</v>
       </c>
@@ -15619,7 +15646,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:46">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>57</v>
       </c>
@@ -15646,7 +15673,7 @@
       </c>
       <c r="AD146" s="3"/>
     </row>
-    <row r="147" spans="1:46">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>58</v>
       </c>
@@ -15672,7 +15699,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="148" spans="1:46">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>59</v>
       </c>
@@ -15698,7 +15725,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="149" spans="1:46">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>60</v>
       </c>
@@ -15724,7 +15751,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="150" spans="1:46">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>61</v>
       </c>
@@ -15750,7 +15777,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="151" spans="1:46">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>62</v>
       </c>
@@ -15777,7 +15804,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="152" spans="1:46">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="E152" s="2"/>
       <c r="I152" s="2"/>
@@ -15787,7 +15814,7 @@
       <c r="Y152" s="2"/>
       <c r="AC152" s="2"/>
     </row>
-    <row r="153" spans="1:46">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>64</v>
       </c>
@@ -15813,17 +15840,17 @@
         <v>285</v>
       </c>
     </row>
-    <row r="155" spans="1:46">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="156" spans="1:46">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="158" spans="1:46">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>17</v>
       </c>
@@ -15831,7 +15858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:46">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>394</v>
       </c>
@@ -15906,7 +15933,7 @@
       </c>
       <c r="AT159" s="1"/>
     </row>
-    <row r="160" spans="1:46">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>4</v>
       </c>
@@ -15981,7 +16008,7 @@
       </c>
       <c r="AT160" s="1"/>
     </row>
-    <row r="161" spans="1:46">
+    <row r="161" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>5</v>
       </c>
@@ -16056,7 +16083,7 @@
       </c>
       <c r="AT161" s="1"/>
     </row>
-    <row r="162" spans="1:46">
+    <row r="162" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>6</v>
       </c>
@@ -16131,7 +16158,7 @@
       </c>
       <c r="AT162" s="1"/>
     </row>
-    <row r="163" spans="1:46">
+    <row r="163" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>7</v>
       </c>
@@ -16206,7 +16233,7 @@
       </c>
       <c r="AT163" s="1"/>
     </row>
-    <row r="164" spans="1:46">
+    <row r="164" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2</v>
       </c>
@@ -16281,7 +16308,7 @@
       </c>
       <c r="AT164" s="1"/>
     </row>
-    <row r="165" spans="1:46">
+    <row r="165" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>0</v>
       </c>
@@ -16356,7 +16383,7 @@
       </c>
       <c r="AT165" s="1"/>
     </row>
-    <row r="166" spans="1:46">
+    <row r="166" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -16431,7 +16458,7 @@
       </c>
       <c r="AT166" s="1"/>
     </row>
-    <row r="167" spans="1:46">
+    <row r="167" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>9</v>
       </c>
@@ -16506,7 +16533,7 @@
       </c>
       <c r="AT167" s="1"/>
     </row>
-    <row r="168" spans="1:46">
+    <row r="168" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>8</v>
       </c>
@@ -16581,7 +16608,7 @@
       </c>
       <c r="AT168" s="1"/>
     </row>
-    <row r="169" spans="1:46">
+    <row r="169" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3</v>
       </c>
@@ -16656,7 +16683,7 @@
       </c>
       <c r="AT169" s="1"/>
     </row>
-    <row r="170" spans="1:46">
+    <row r="170" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>10</v>
       </c>
@@ -16731,7 +16758,7 @@
       </c>
       <c r="AT170" s="1"/>
     </row>
-    <row r="171" spans="1:46">
+    <row r="171" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>0</v>
       </c>
@@ -16806,7 +16833,7 @@
       </c>
       <c r="AT171" s="1"/>
     </row>
-    <row r="172" spans="1:46">
+    <row r="172" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -16881,7 +16908,7 @@
       </c>
       <c r="AT172" s="1"/>
     </row>
-    <row r="173" spans="1:46">
+    <row r="173" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2</v>
       </c>
@@ -16956,7 +16983,7 @@
       </c>
       <c r="AT173" s="1"/>
     </row>
-    <row r="174" spans="1:46">
+    <row r="174" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3</v>
       </c>
@@ -17031,7 +17058,7 @@
       </c>
       <c r="AT174" s="1"/>
     </row>
-    <row r="175" spans="1:46">
+    <row r="175" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>4</v>
       </c>
@@ -17106,7 +17133,7 @@
       </c>
       <c r="AT175" s="1"/>
     </row>
-    <row r="176" spans="1:46">
+    <row r="176" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>4</v>
       </c>
@@ -17181,7 +17208,7 @@
       </c>
       <c r="AT176" s="1"/>
     </row>
-    <row r="177" spans="1:46">
+    <row r="177" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>0</v>
       </c>
@@ -17256,7 +17283,7 @@
       </c>
       <c r="AT177" s="1"/>
     </row>
-    <row r="178" spans="1:46">
+    <row r="178" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -17331,7 +17358,7 @@
       </c>
       <c r="AT178" s="1"/>
     </row>
-    <row r="179" spans="1:46">
+    <row r="179" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2</v>
       </c>
@@ -17406,7 +17433,7 @@
       </c>
       <c r="AT179" s="1"/>
     </row>
-    <row r="180" spans="1:46">
+    <row r="180" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -17481,7 +17508,7 @@
       </c>
       <c r="AT180" s="1"/>
     </row>
-    <row r="181" spans="1:46">
+    <row r="181" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>0</v>
       </c>
@@ -17556,7 +17583,7 @@
       </c>
       <c r="AT181" s="1"/>
     </row>
-    <row r="182" spans="1:46">
+    <row r="182" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -17631,7 +17658,7 @@
       </c>
       <c r="AT182" s="1"/>
     </row>
-    <row r="183" spans="1:46">
+    <row r="183" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2</v>
       </c>
@@ -17706,7 +17733,7 @@
       </c>
       <c r="AT183" s="1"/>
     </row>
-    <row r="184" spans="1:46">
+    <row r="184" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -17781,7 +17808,7 @@
       </c>
       <c r="AT184" s="1"/>
     </row>
-    <row r="185" spans="1:46">
+    <row r="185" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -17856,7 +17883,7 @@
       </c>
       <c r="AT185" s="1"/>
     </row>
-    <row r="186" spans="1:46">
+    <row r="186" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -17931,7 +17958,7 @@
       </c>
       <c r="AT186" s="1"/>
     </row>
-    <row r="187" spans="1:46">
+    <row r="187" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>9</v>
       </c>
@@ -18006,7 +18033,7 @@
       </c>
       <c r="AT187" s="1"/>
     </row>
-    <row r="188" spans="1:46">
+    <row r="188" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>5</v>
       </c>
@@ -18081,7 +18108,7 @@
       </c>
       <c r="AT188" s="1"/>
     </row>
-    <row r="189" spans="1:46">
+    <row r="189" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -18156,7 +18183,7 @@
       </c>
       <c r="AT189" s="1"/>
     </row>
-    <row r="190" spans="1:46">
+    <row r="190" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>10</v>
       </c>
@@ -18231,7 +18258,7 @@
       </c>
       <c r="AT190" s="1"/>
     </row>
-    <row r="191" spans="1:46">
+    <row r="191" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>6</v>
       </c>
@@ -18306,7 +18333,7 @@
       </c>
       <c r="AT191" s="1"/>
     </row>
-    <row r="192" spans="1:46">
+    <row r="192" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>5</v>
       </c>
@@ -18381,7 +18408,7 @@
       </c>
       <c r="AT192" s="1"/>
     </row>
-    <row r="193" spans="1:46">
+    <row r="193" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>7</v>
       </c>
@@ -18456,7 +18483,7 @@
       </c>
       <c r="AT193" s="1"/>
     </row>
-    <row r="194" spans="1:46">
+    <row r="194" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>6</v>
       </c>
@@ -18531,7 +18558,7 @@
       </c>
       <c r="AT194" s="1"/>
     </row>
-    <row r="195" spans="1:46">
+    <row r="195" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>7</v>
       </c>
@@ -18606,7 +18633,7 @@
       </c>
       <c r="AT195" s="1"/>
     </row>
-    <row r="196" spans="1:46">
+    <row r="196" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>8</v>
       </c>
@@ -18681,7 +18708,7 @@
       </c>
       <c r="AT196" s="1"/>
     </row>
-    <row r="197" spans="1:46">
+    <row r="197" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>7</v>
       </c>
@@ -18756,7 +18783,7 @@
       </c>
       <c r="AT197" s="1"/>
     </row>
-    <row r="198" spans="1:46">
+    <row r="198" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>10</v>
       </c>
@@ -18831,7 +18858,7 @@
       </c>
       <c r="AT198" s="1"/>
     </row>
-    <row r="199" spans="1:46">
+    <row r="199" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>9</v>
       </c>
@@ -18906,7 +18933,7 @@
       </c>
       <c r="AT199" s="1"/>
     </row>
-    <row r="200" spans="1:46">
+    <row r="200" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>6</v>
       </c>
@@ -18981,7 +19008,7 @@
       </c>
       <c r="AT200" s="1"/>
     </row>
-    <row r="201" spans="1:46">
+    <row r="201" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>8</v>
       </c>
@@ -19056,7 +19083,7 @@
       </c>
       <c r="AT201" s="1"/>
     </row>
-    <row r="202" spans="1:46">
+    <row r="202" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>5</v>
       </c>
@@ -19131,7 +19158,7 @@
       </c>
       <c r="AT202" s="1"/>
     </row>
-    <row r="203" spans="1:46">
+    <row r="203" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -19206,7 +19233,7 @@
       </c>
       <c r="AT203" s="1"/>
     </row>
-    <row r="204" spans="1:46">
+    <row r="204" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -19281,7 +19308,7 @@
       </c>
       <c r="AT204" s="1"/>
     </row>
-    <row r="205" spans="1:46">
+    <row r="205" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2</v>
       </c>
@@ -19356,7 +19383,7 @@
       </c>
       <c r="AT205" s="1"/>
     </row>
-    <row r="206" spans="1:46">
+    <row r="206" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3</v>
       </c>
@@ -19431,7 +19458,7 @@
       </c>
       <c r="AT206" s="1"/>
     </row>
-    <row r="207" spans="1:46">
+    <row r="207" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>4</v>
       </c>
@@ -19506,7 +19533,7 @@
       </c>
       <c r="AT207" s="1"/>
     </row>
-    <row r="208" spans="1:46">
+    <row r="208" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>9</v>
       </c>
@@ -19581,7 +19608,7 @@
       </c>
       <c r="AT208" s="1"/>
     </row>
-    <row r="209" spans="1:46">
+    <row r="209" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>4</v>
       </c>
@@ -19656,7 +19683,7 @@
       </c>
       <c r="AT209" s="1"/>
     </row>
-    <row r="210" spans="1:46">
+    <row r="210" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>6</v>
       </c>
@@ -19731,7 +19758,7 @@
       </c>
       <c r="AT210" s="1"/>
     </row>
-    <row r="211" spans="1:46">
+    <row r="211" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>10</v>
       </c>
@@ -19806,7 +19833,7 @@
       </c>
       <c r="AT211" s="1"/>
     </row>
-    <row r="212" spans="1:46">
+    <row r="212" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>0</v>
       </c>
@@ -19881,7 +19908,7 @@
       </c>
       <c r="AT212" s="1"/>
     </row>
-    <row r="213" spans="1:46">
+    <row r="213" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1</v>
       </c>
@@ -19956,7 +19983,7 @@
       </c>
       <c r="AT213" s="1"/>
     </row>
-    <row r="214" spans="1:46">
+    <row r="214" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2</v>
       </c>
@@ -20031,7 +20058,7 @@
       </c>
       <c r="AT214" s="1"/>
     </row>
-    <row r="215" spans="1:46">
+    <row r="215" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>6</v>
       </c>
@@ -20106,7 +20133,7 @@
       </c>
       <c r="AT215" s="1"/>
     </row>
-    <row r="216" spans="1:46">
+    <row r="216" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>3</v>
       </c>
@@ -20181,7 +20208,7 @@
       </c>
       <c r="AT216" s="1"/>
     </row>
-    <row r="217" spans="1:46">
+    <row r="217" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>5</v>
       </c>
@@ -20256,7 +20283,7 @@
       </c>
       <c r="AT217" s="1"/>
     </row>
-    <row r="218" spans="1:46">
+    <row r="218" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>7</v>
       </c>
@@ -20331,7 +20358,7 @@
       </c>
       <c r="AT218" s="1"/>
     </row>
-    <row r="219" spans="1:46">
+    <row r="219" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2</v>
       </c>
@@ -20406,7 +20433,7 @@
       </c>
       <c r="AT219" s="1"/>
     </row>
-    <row r="220" spans="1:46">
+    <row r="220" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>7</v>
       </c>
@@ -20481,7 +20508,7 @@
       </c>
       <c r="AT220" s="1"/>
     </row>
-    <row r="221" spans="1:46">
+    <row r="221" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1</v>
       </c>
@@ -20556,7 +20583,7 @@
       </c>
       <c r="AT221" s="1"/>
     </row>
-    <row r="222" spans="1:46">
+    <row r="222" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>0</v>
       </c>
@@ -20631,7 +20658,7 @@
       </c>
       <c r="AT222" s="1"/>
     </row>
-    <row r="223" spans="1:46">
+    <row r="223" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>9</v>
       </c>
@@ -20706,7 +20733,7 @@
       </c>
       <c r="AT223" s="1"/>
     </row>
-    <row r="224" spans="1:46">
+    <row r="224" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>9</v>
       </c>
@@ -20781,7 +20808,7 @@
       </c>
       <c r="AT224" s="1"/>
     </row>
-    <row r="225" spans="1:46">
+    <row r="225" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>8</v>
       </c>
@@ -20856,7 +20883,7 @@
       </c>
       <c r="AT225" s="1"/>
     </row>
-    <row r="226" spans="1:46">
+    <row r="226" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>10</v>
       </c>
@@ -20931,7 +20958,7 @@
       </c>
       <c r="AT226" s="1"/>
     </row>
-    <row r="227" spans="1:46">
+    <row r="227" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>3</v>
       </c>
@@ -21006,7 +21033,7 @@
       </c>
       <c r="AT227" s="1"/>
     </row>
-    <row r="228" spans="1:46">
+    <row r="228" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>5</v>
       </c>
@@ -21081,7 +21108,7 @@
       </c>
       <c r="AT228" s="1"/>
     </row>
-    <row r="229" spans="1:46">
+    <row r="229" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>6</v>
       </c>
@@ -21156,7 +21183,7 @@
       </c>
       <c r="AT229" s="1"/>
     </row>
-    <row r="230" spans="1:46">
+    <row r="230" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>8</v>
       </c>
@@ -21231,7 +21258,7 @@
       </c>
       <c r="AT230" s="1"/>
     </row>
-    <row r="231" spans="1:46">
+    <row r="231" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4</v>
       </c>
@@ -21306,7 +21333,7 @@
       </c>
       <c r="AT231" s="1"/>
     </row>
-    <row r="232" spans="1:46">
+    <row r="232" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>9</v>
       </c>
@@ -21381,7 +21408,7 @@
       </c>
       <c r="AT232" s="1"/>
     </row>
-    <row r="233" spans="1:46">
+    <row r="233" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>7</v>
       </c>
@@ -21456,7 +21483,7 @@
       </c>
       <c r="AT233" s="1"/>
     </row>
-    <row r="234" spans="1:46">
+    <row r="234" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>8</v>
       </c>
@@ -21531,7 +21558,7 @@
       </c>
       <c r="AT234" s="1"/>
     </row>
-    <row r="235" spans="1:46">
+    <row r="235" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>10</v>
       </c>
@@ -21606,7 +21633,7 @@
       </c>
       <c r="AT235" s="1"/>
     </row>
-    <row r="236" spans="1:46">
+    <row r="236" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>10</v>
       </c>
@@ -21681,7 +21708,7 @@
       </c>
       <c r="AT236" s="1"/>
     </row>
-    <row r="237" spans="1:46">
+    <row r="237" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>10</v>
       </c>
@@ -21756,7 +21783,7 @@
       </c>
       <c r="AT237" s="1"/>
     </row>
-    <row r="238" spans="1:46">
+    <row r="238" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>9</v>
       </c>
@@ -21831,7 +21858,7 @@
       </c>
       <c r="AT238" s="1"/>
     </row>
-    <row r="239" spans="1:46">
+    <row r="239" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>6</v>
       </c>
@@ -21906,7 +21933,7 @@
       </c>
       <c r="AT239" s="1"/>
     </row>
-    <row r="240" spans="1:46">
+    <row r="240" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>7</v>
       </c>
@@ -21981,7 +22008,7 @@
       </c>
       <c r="AT240" s="1"/>
     </row>
-    <row r="241" spans="1:46">
+    <row r="241" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>8</v>
       </c>
@@ -22056,7 +22083,7 @@
       </c>
       <c r="AT241" s="1"/>
     </row>
-    <row r="242" spans="1:46">
+    <row r="242" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>0</v>
       </c>
@@ -22131,7 +22158,7 @@
       </c>
       <c r="AT242" s="1"/>
     </row>
-    <row r="243" spans="1:46">
+    <row r="243" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1</v>
       </c>
@@ -22206,7 +22233,7 @@
       </c>
       <c r="AT243" s="1"/>
     </row>
-    <row r="244" spans="1:46">
+    <row r="244" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>2</v>
       </c>
@@ -22281,7 +22308,7 @@
       </c>
       <c r="AT244" s="1"/>
     </row>
-    <row r="245" spans="1:46">
+    <row r="245" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>3</v>
       </c>
@@ -22356,7 +22383,7 @@
       </c>
       <c r="AT245" s="1"/>
     </row>
-    <row r="246" spans="1:46">
+    <row r="246" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4</v>
       </c>
@@ -22431,7 +22458,7 @@
       </c>
       <c r="AT246" s="1"/>
     </row>
-    <row r="247" spans="1:46">
+    <row r="247" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>5</v>
       </c>
@@ -22506,7 +22533,7 @@
       </c>
       <c r="AT247" s="1"/>
     </row>
-    <row r="248" spans="1:46">
+    <row r="248" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>10</v>
       </c>
@@ -22581,7 +22608,7 @@
       </c>
       <c r="AT248" s="1"/>
     </row>
-    <row r="249" spans="1:46">
+    <row r="249" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>9</v>
       </c>
@@ -22656,7 +22683,7 @@
       </c>
       <c r="AT249" s="1"/>
     </row>
-    <row r="250" spans="1:46">
+    <row r="250" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>8</v>
       </c>
@@ -22731,7 +22758,7 @@
       </c>
       <c r="AT250" s="1"/>
     </row>
-    <row r="251" spans="1:46">
+    <row r="251" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>7</v>
       </c>
@@ -22806,7 +22833,7 @@
       </c>
       <c r="AT251" s="1"/>
     </row>
-    <row r="252" spans="1:46">
+    <row r="252" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>6</v>
       </c>
@@ -22881,7 +22908,7 @@
       </c>
       <c r="AT252" s="1"/>
     </row>
-    <row r="253" spans="1:46">
+    <row r="253" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>0</v>
       </c>
@@ -22956,7 +22983,7 @@
       </c>
       <c r="AT253" s="1"/>
     </row>
-    <row r="254" spans="1:46">
+    <row r="254" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1</v>
       </c>
@@ -23031,7 +23058,7 @@
       </c>
       <c r="AT254" s="1"/>
     </row>
-    <row r="255" spans="1:46">
+    <row r="255" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>2</v>
       </c>
@@ -23106,7 +23133,7 @@
       </c>
       <c r="AT255" s="1"/>
     </row>
-    <row r="256" spans="1:46">
+    <row r="256" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>3</v>
       </c>
@@ -23181,7 +23208,7 @@
       </c>
       <c r="AT256" s="1"/>
     </row>
-    <row r="257" spans="1:46">
+    <row r="257" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4</v>
       </c>
@@ -23256,7 +23283,7 @@
       </c>
       <c r="AT257" s="1"/>
     </row>
-    <row r="258" spans="1:46">
+    <row r="258" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>5</v>
       </c>
@@ -23355,13 +23382,13 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1"/>
-    <row r="2" spans="2:16" ht="61.5" thickTop="1" thickBot="1">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="59" t="s">
         <v>408</v>
       </c>
@@ -23396,7 +23423,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="27" thickTop="1" thickBot="1">
+    <row r="3" spans="2:16" ht="27" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="60" t="s">
         <v>17</v>
       </c>
@@ -23431,7 +23458,7 @@
         <v>6.1600000000000002E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:16" ht="30.75" thickBot="1">
+    <row r="4" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="64"/>
       <c r="C4" s="65" t="s">
         <v>415</v>
@@ -23462,7 +23489,7 @@
         <v>6.0600000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="30.75" thickTop="1">
+    <row r="5" spans="2:16" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B5" s="66"/>
       <c r="C5" s="67" t="s">
         <v>318</v>
@@ -23495,7 +23522,7 @@
         <v>8.1799999999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:16" ht="15.75" thickBot="1">
+    <row r="6" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="60" t="s">
         <v>22</v>
       </c>
@@ -23528,7 +23555,7 @@
         <v>7.1599999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:16" ht="30.75" thickTop="1">
+    <row r="7" spans="2:16" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B7" s="64"/>
       <c r="C7" s="65" t="s">
         <v>415</v>
@@ -23561,7 +23588,7 @@
         <v>0.1042</v>
       </c>
     </row>
-    <row r="8" spans="2:16" ht="30.75" thickBot="1">
+    <row r="8" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="69"/>
       <c r="C8" s="70" t="s">
         <v>318</v>
@@ -23592,7 +23619,7 @@
         <v>0.1099</v>
       </c>
     </row>
-    <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L9" s="112" t="s">
         <v>413</v>
       </c>
@@ -23609,7 +23636,7 @@
         <v>0.1086</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1">
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L10" s="117"/>
       <c r="M10" s="118" t="s">
         <v>22</v>
@@ -23624,8 +23651,8 @@
         <v>0.1132</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="16.5" thickTop="1" thickBot="1"/>
-    <row r="12" spans="2:16" ht="30" customHeight="1" thickTop="1" thickBot="1">
+    <row r="11" spans="2:16" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:16" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="73"/>
       <c r="C12" s="168" t="s">
         <v>410</v>
@@ -23644,7 +23671,7 @@
       </c>
       <c r="J12" s="172"/>
     </row>
-    <row r="13" spans="2:16" ht="26.25" thickTop="1">
+    <row r="13" spans="2:16" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B13" s="74" t="s">
         <v>416</v>
       </c>
@@ -23673,7 +23700,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="77" t="s">
         <v>17</v>
       </c>
@@ -23702,7 +23729,7 @@
         <v>6.3899999999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="79" t="s">
         <v>22</v>
       </c>
@@ -23731,9 +23758,9 @@
         <v>6.7799999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="15.75" thickTop="1"/>
-    <row r="17" spans="2:10" ht="15.75" thickBot="1"/>
-    <row r="18" spans="2:10" ht="30" customHeight="1" thickBot="1">
+    <row r="16" spans="2:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="122"/>
       <c r="C18" s="171" t="s">
         <v>410</v>
@@ -23752,7 +23779,7 @@
       </c>
       <c r="J18" s="172"/>
     </row>
-    <row r="19" spans="2:10" ht="26.25" thickTop="1">
+    <row r="19" spans="2:10" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="123" t="s">
         <v>416</v>
       </c>
@@ -23781,7 +23808,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="124" t="s">
         <v>17</v>
       </c>
@@ -23810,7 +23837,7 @@
         <v>0.1018</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15.75" thickBot="1">
+    <row r="21" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="125" t="s">
         <v>22</v>
       </c>
@@ -23839,7 +23866,7 @@
         <v>0.1053</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15.75" thickTop="1"/>
+    <row r="22" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C12:D12"/>
@@ -23859,16 +23886,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9C99B5-D192-49A7-9990-0925AF13958A}">
   <dimension ref="B3:X54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="28.5">
+    <row r="3" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B3" s="131" t="s">
         <v>423</v>
       </c>
@@ -23891,7 +23918,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="15.75" thickBot="1">
+    <row r="4" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="133"/>
       <c r="C4" s="133"/>
       <c r="D4" s="134" t="s">
@@ -23910,7 +23937,7 @@
         <v>0.52139999999999997</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="30.75" thickBot="1">
+    <row r="5" spans="2:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="137"/>
       <c r="C5" s="138" t="s">
         <v>17</v>
@@ -23931,7 +23958,7 @@
         <v>0.53010000000000002</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="28.5">
+    <row r="6" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B6" s="141">
         <v>200</v>
       </c>
@@ -23952,7 +23979,7 @@
         <v>0.66320000000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:8">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="137"/>
       <c r="C7" s="133"/>
       <c r="D7" s="134" t="s">
@@ -23971,7 +23998,7 @@
         <v>0.50790000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30">
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="137"/>
       <c r="C8" s="138" t="s">
         <v>22</v>
@@ -23992,7 +24019,7 @@
         <v>0.55100000000000005</v>
       </c>
     </row>
-    <row r="9" spans="2:8" ht="29.25" thickBot="1">
+    <row r="9" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="146"/>
       <c r="C9" s="146"/>
       <c r="D9" s="147" t="s">
@@ -24011,7 +24038,7 @@
         <v>0.71450000000000002</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15.75" thickTop="1">
+    <row r="10" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B10" s="149"/>
       <c r="C10" s="149"/>
       <c r="D10" s="150" t="s">
@@ -24030,7 +24057,7 @@
         <v>0.23710000000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:8" ht="30">
+    <row r="11" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="137"/>
       <c r="C11" s="138" t="s">
         <v>17</v>
@@ -24051,7 +24078,7 @@
         <v>0.25409999999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="28.5">
+    <row r="12" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B12" s="141">
         <v>50</v>
       </c>
@@ -24072,7 +24099,7 @@
         <v>0.37309999999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="137"/>
       <c r="C13" s="133"/>
       <c r="D13" s="134" t="s">
@@ -24091,7 +24118,7 @@
         <v>0.25440000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30">
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="137"/>
       <c r="C14" s="138" t="s">
         <v>22</v>
@@ -24112,7 +24139,7 @@
         <v>0.30099999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="29.25" thickBot="1">
+    <row r="15" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="146"/>
       <c r="C15" s="146"/>
       <c r="D15" s="147" t="s">
@@ -24131,7 +24158,7 @@
         <v>0.43080000000000002</v>
       </c>
     </row>
-    <row r="16" spans="2:8" ht="15.75" thickTop="1">
+    <row r="16" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B16" s="149"/>
       <c r="C16" s="149"/>
       <c r="D16" s="150" t="s">
@@ -24150,7 +24177,7 @@
         <v>9.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="2:24" ht="30">
+    <row r="17" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="137"/>
       <c r="C17" s="138" t="s">
         <v>17</v>
@@ -24171,7 +24198,7 @@
         <v>0.1038</v>
       </c>
     </row>
-    <row r="18" spans="2:24" ht="28.5">
+    <row r="18" spans="2:24" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B18" s="141">
         <v>10</v>
       </c>
@@ -24192,7 +24219,7 @@
         <v>0.14410000000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:24">
+    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B19" s="137"/>
       <c r="C19" s="133"/>
       <c r="D19" s="134" t="s">
@@ -24211,7 +24238,7 @@
         <v>9.4200000000000006E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:24" ht="30">
+    <row r="20" spans="2:24" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="137"/>
       <c r="C20" s="138" t="s">
         <v>22</v>
@@ -24232,7 +24259,7 @@
         <v>0.1336</v>
       </c>
     </row>
-    <row r="21" spans="2:24" ht="28.5">
+    <row r="21" spans="2:24" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B21" s="142"/>
       <c r="C21" s="142"/>
       <c r="D21" s="152" t="s">
@@ -24251,12 +24278,12 @@
         <v>0.1547</v>
       </c>
     </row>
-    <row r="23" spans="2:24">
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="24" spans="2:24" ht="28.5">
+    <row r="24" spans="2:24" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B24" s="131" t="s">
         <v>423</v>
       </c>
@@ -24321,7 +24348,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="25" spans="2:24">
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B25" s="133"/>
       <c r="C25" s="153" t="s">
         <v>17</v>
@@ -24380,7 +24407,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="2:24">
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B26" s="137"/>
       <c r="C26" s="137"/>
       <c r="D26" s="154" t="s">
@@ -24433,7 +24460,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="2:24">
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B27" s="141">
         <v>200</v>
       </c>
@@ -24492,7 +24519,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="28" spans="2:24">
+    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B28" s="137"/>
       <c r="C28" s="153" t="s">
         <v>22</v>
@@ -24551,7 +24578,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="29" spans="2:24">
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B29" s="137"/>
       <c r="C29" s="137"/>
       <c r="D29" s="154" t="s">
@@ -24604,7 +24631,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="30" spans="2:24">
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B30" s="142"/>
       <c r="C30" s="142"/>
       <c r="D30" s="154" t="s">
@@ -24657,7 +24684,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="31" spans="2:24">
+    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B31" s="133"/>
       <c r="C31" s="153" t="s">
         <v>17</v>
@@ -24716,7 +24743,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="32" spans="2:24">
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B32" s="137"/>
       <c r="C32" s="137"/>
       <c r="D32" s="154" t="s">
@@ -24769,7 +24796,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="33" spans="2:24">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B33" s="141">
         <v>50</v>
       </c>
@@ -24828,7 +24855,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="34" spans="2:24">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B34" s="137"/>
       <c r="C34" s="153" t="s">
         <v>22</v>
@@ -24887,7 +24914,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="35" spans="2:24">
+    <row r="35" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B35" s="137"/>
       <c r="C35" s="137"/>
       <c r="D35" s="154" t="s">
@@ -24940,7 +24967,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="36" spans="2:24">
+    <row r="36" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B36" s="142"/>
       <c r="C36" s="142"/>
       <c r="D36" s="154" t="s">
@@ -24993,7 +25020,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="37" spans="2:24">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B37" s="133"/>
       <c r="C37" s="153" t="s">
         <v>17</v>
@@ -25052,7 +25079,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="38" spans="2:24">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B38" s="137"/>
       <c r="C38" s="137"/>
       <c r="D38" s="154" t="s">
@@ -25105,7 +25132,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="39" spans="2:24">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B39" s="141">
         <v>10</v>
       </c>
@@ -25164,7 +25191,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="40" spans="2:24">
+    <row r="40" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B40" s="137"/>
       <c r="C40" s="153" t="s">
         <v>22</v>
@@ -25223,7 +25250,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="41" spans="2:24">
+    <row r="41" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B41" s="137"/>
       <c r="C41" s="137"/>
       <c r="D41" s="154" t="s">
@@ -25276,7 +25303,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="42" spans="2:24">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B42" s="142"/>
       <c r="C42" s="142"/>
       <c r="D42" s="154" t="s">
@@ -25329,12 +25356,12 @@
         <v>436</v>
       </c>
     </row>
-    <row r="45" spans="2:24">
+    <row r="45" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="47" spans="2:24">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B47" s="158"/>
       <c r="C47" s="159"/>
       <c r="D47" s="175" t="s">
@@ -25358,7 +25385,7 @@
       <c r="N47" s="176"/>
       <c r="O47" s="177"/>
     </row>
-    <row r="48" spans="2:24">
+    <row r="48" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B48" s="160" t="s">
         <v>441</v>
       </c>
@@ -25402,7 +25429,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="49" spans="2:15">
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B49" s="162">
         <v>200</v>
       </c>
@@ -25446,7 +25473,7 @@
         <v>0.69599999999999995</v>
       </c>
     </row>
-    <row r="50" spans="2:15">
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B50" s="142"/>
       <c r="C50" s="163" t="s">
         <v>22</v>
@@ -25488,7 +25515,7 @@
         <v>0.6462</v>
       </c>
     </row>
-    <row r="51" spans="2:15">
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B51" s="162">
         <v>50</v>
       </c>
@@ -25532,7 +25559,7 @@
         <v>0.37719999999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:15">
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B52" s="142"/>
       <c r="C52" s="163" t="s">
         <v>22</v>
@@ -25574,7 +25601,7 @@
         <v>0.37759999999999999</v>
       </c>
     </row>
-    <row r="53" spans="2:15">
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="162">
         <v>10</v>
       </c>
@@ -25618,7 +25645,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="54" spans="2:15">
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="142"/>
       <c r="C54" s="163" t="s">
         <v>22</v>

--- a/Masters Project and Analysis/analytical_data/Complete_results_F1&AVG.xlsx
+++ b/Masters Project and Analysis/analytical_data/Complete_results_F1&AVG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herma\Desktop\WORKSPACE\KeyBERT-Estonia-setup\Masters Project and Analysis\analytical_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9D247C-89A0-4531-B4EE-42C46314B738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29A0D7C9-8696-45E7-B2AC-E6151BFEED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="2430" windowWidth="24060" windowHeight="13185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="9810" windowWidth="24060" windowHeight="13185" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAWDATA_M_AVG_&amp;_F1_SCORE" sheetId="1" r:id="rId1"/>
@@ -3862,6 +3862,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3869,15 +3878,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4404,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DL258"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView showGridLines="0" topLeftCell="W80" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AL96" sqref="AL96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36023,7 +36023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B848318F-60A0-4655-B7AC-4F5E7D372E37}">
   <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -36531,8 +36531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9C99B5-D192-49A7-9990-0925AF13958A}">
   <dimension ref="A3:AN75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:G58"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R4" activeCellId="1" sqref="B3:H21 R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36606,13 +36606,13 @@
         <v>0.3261</v>
       </c>
       <c r="F5" s="117">
-        <v>0.30009999999999998</v>
+        <v>0.32714333059727801</v>
       </c>
       <c r="G5" s="113">
-        <v>0.52239999999999998</v>
+        <v>0.52228826590410704</v>
       </c>
       <c r="H5" s="113">
-        <v>0.53010000000000002</v>
+        <v>0.53010430299452505</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
@@ -36664,13 +36664,13 @@
         <v>346</v>
       </c>
       <c r="E8" s="113">
-        <v>0.34320000000000001</v>
+        <v>0.34324816992051199</v>
       </c>
       <c r="F8" s="113">
-        <v>0.34589999999999999</v>
+        <v>0.34663197949949698</v>
       </c>
       <c r="G8" s="113">
-        <v>0.54549999999999998</v>
+        <v>0.54549914338136696</v>
       </c>
       <c r="H8" s="113">
         <v>0.55100000000000005</v>
@@ -36723,16 +36723,16 @@
         <v>346</v>
       </c>
       <c r="E11" s="113">
-        <v>0.16250000000000001</v>
+        <v>0.16247119648306399</v>
       </c>
       <c r="F11" s="113">
-        <v>0.16020000000000001</v>
+        <v>0.15996803866450399</v>
       </c>
       <c r="G11" s="113">
         <v>0.2422</v>
       </c>
       <c r="H11" s="113">
-        <v>0.25409999999999999</v>
+        <v>0.25410257002104197</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="28.5" x14ac:dyDescent="0.25">
@@ -36784,16 +36784,16 @@
         <v>346</v>
       </c>
       <c r="E14" s="113">
-        <v>0.1678</v>
+        <v>0.16775064603534601</v>
       </c>
       <c r="F14" s="113">
-        <v>0.1963</v>
+        <v>0.164032868199147</v>
       </c>
       <c r="G14" s="113">
-        <v>0.29010000000000002</v>
+        <v>0.29014150548644801</v>
       </c>
       <c r="H14" s="113">
-        <v>0.30099999999999999</v>
+        <v>0.30101083393253097</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -36846,13 +36846,13 @@
         <v>6.3899999999999998E-2</v>
       </c>
       <c r="F17" s="113">
-        <v>7.7700000000000005E-2</v>
+        <v>5.9999999999999901E-2</v>
       </c>
       <c r="G17" s="113">
-        <v>9.9099999999999994E-2</v>
+        <v>0.10222222222222201</v>
       </c>
       <c r="H17" s="113">
-        <v>0.1038</v>
+        <v>0.107222222222222</v>
       </c>
     </row>
     <row r="18" spans="2:40" ht="28.5" x14ac:dyDescent="0.25">
@@ -36864,16 +36864,16 @@
         <v>304</v>
       </c>
       <c r="E18" s="120">
-        <v>9.7100000000000006E-2</v>
+        <v>0.103888888888888</v>
       </c>
       <c r="F18" s="120">
-        <v>0.1017</v>
+        <v>0.110555555555555</v>
       </c>
       <c r="G18" s="120">
-        <v>0.14149999999999999</v>
+        <v>0.142222222222222</v>
       </c>
       <c r="H18" s="120">
-        <v>0.14410000000000001</v>
+        <v>0.14444444444444399</v>
       </c>
     </row>
     <row r="19" spans="2:40" x14ac:dyDescent="0.25">
@@ -36904,16 +36904,16 @@
         <v>346</v>
       </c>
       <c r="E20" s="113">
-        <v>6.9699999999999998E-2</v>
+        <v>7.7777777777777696E-2</v>
       </c>
       <c r="F20" s="113">
-        <v>9.8900000000000002E-2</v>
+        <v>7.1666666666666504E-2</v>
       </c>
       <c r="G20" s="113">
-        <v>0.13059999999999999</v>
+        <v>0.13888888888888801</v>
       </c>
       <c r="H20" s="113">
-        <v>0.1336</v>
+        <v>0.14333333333333301</v>
       </c>
     </row>
     <row r="21" spans="2:40" ht="28.5" x14ac:dyDescent="0.25">
@@ -36923,16 +36923,16 @@
         <v>304</v>
       </c>
       <c r="E21" s="120">
-        <v>0.10879999999999999</v>
+        <v>0.122777777777777</v>
       </c>
       <c r="F21" s="120">
-        <v>0.1167</v>
+        <v>0.13111111111111101</v>
       </c>
       <c r="G21" s="120">
-        <v>0.154</v>
+        <v>0.168333333333333</v>
       </c>
       <c r="H21" s="120">
-        <v>0.1547</v>
+        <v>0.17055555555555499</v>
       </c>
     </row>
     <row r="23" spans="2:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37006,26 +37006,26 @@
       </c>
       <c r="AA24" s="233"/>
       <c r="AB24" s="234"/>
-      <c r="AC24" s="293" t="s">
+      <c r="AC24" s="290" t="s">
         <v>355</v>
       </c>
-      <c r="AD24" s="294"/>
-      <c r="AE24" s="295"/>
-      <c r="AF24" s="293" t="s">
+      <c r="AD24" s="291"/>
+      <c r="AE24" s="292"/>
+      <c r="AF24" s="290" t="s">
         <v>356</v>
       </c>
-      <c r="AG24" s="294"/>
-      <c r="AH24" s="295"/>
-      <c r="AI24" s="293" t="s">
+      <c r="AG24" s="291"/>
+      <c r="AH24" s="292"/>
+      <c r="AI24" s="290" t="s">
         <v>357</v>
       </c>
-      <c r="AJ24" s="294"/>
-      <c r="AK24" s="295"/>
-      <c r="AL24" s="293" t="s">
+      <c r="AJ24" s="291"/>
+      <c r="AK24" s="292"/>
+      <c r="AL24" s="290" t="s">
         <v>358</v>
       </c>
-      <c r="AM24" s="294"/>
-      <c r="AN24" s="295"/>
+      <c r="AM24" s="291"/>
+      <c r="AN24" s="292"/>
     </row>
     <row r="25" spans="2:40" x14ac:dyDescent="0.25">
       <c r="B25" s="228"/>
@@ -39485,22 +39485,22 @@
     <row r="62" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="257"/>
       <c r="B62" s="267"/>
-      <c r="C62" s="290" t="s">
+      <c r="C62" s="293" t="s">
         <v>341</v>
       </c>
-      <c r="D62" s="291"/>
-      <c r="E62" s="290" t="s">
+      <c r="D62" s="294"/>
+      <c r="E62" s="293" t="s">
         <v>342</v>
       </c>
-      <c r="F62" s="291"/>
-      <c r="G62" s="290" t="s">
+      <c r="F62" s="294"/>
+      <c r="G62" s="293" t="s">
         <v>343</v>
       </c>
-      <c r="H62" s="292"/>
-      <c r="I62" s="290" t="s">
+      <c r="H62" s="295"/>
+      <c r="I62" s="293" t="s">
         <v>344</v>
       </c>
-      <c r="J62" s="292"/>
+      <c r="J62" s="295"/>
       <c r="T62" s="265"/>
       <c r="AA62" s="255"/>
       <c r="AB62" s="258"/>
@@ -39787,22 +39787,22 @@
     <row r="68" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="257"/>
       <c r="B68" s="267"/>
-      <c r="C68" s="290" t="s">
+      <c r="C68" s="293" t="s">
         <v>341</v>
       </c>
-      <c r="D68" s="291"/>
-      <c r="E68" s="290" t="s">
+      <c r="D68" s="294"/>
+      <c r="E68" s="293" t="s">
         <v>342</v>
       </c>
-      <c r="F68" s="292"/>
-      <c r="G68" s="290" t="s">
+      <c r="F68" s="295"/>
+      <c r="G68" s="293" t="s">
         <v>343</v>
       </c>
-      <c r="H68" s="292"/>
-      <c r="I68" s="290" t="s">
+      <c r="H68" s="295"/>
+      <c r="I68" s="293" t="s">
         <v>344</v>
       </c>
-      <c r="J68" s="292"/>
+      <c r="J68" s="295"/>
       <c r="T68" s="265"/>
       <c r="AA68" s="255"/>
       <c r="AB68" s="258"/>
@@ -40143,6 +40143,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="AC24:AE24"/>
     <mergeCell ref="AF24:AH24"/>
     <mergeCell ref="AI24:AK24"/>
     <mergeCell ref="AL24:AN24"/>
@@ -40150,11 +40155,6 @@
     <mergeCell ref="E62:F62"/>
     <mergeCell ref="G62:H62"/>
     <mergeCell ref="I62:J62"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="AC24:AE24"/>
   </mergeCells>
   <conditionalFormatting sqref="M25:P42">
     <cfRule type="duplicateValues" priority="1"/>
